--- a/publipostage/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,40 +441,45 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>status_label</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>NCTId</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>eudraCT</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>completion_year</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>clinical_trial_title</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>acronym</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>results_1y</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>results_3y</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>results</t>
         </is>
@@ -488,106 +493,121 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>NCT00847938</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr">
+      <c r="D2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
         <is>
           <t>2009</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Randomized, Controlled, Double-blind, Prospective Study, Comparing Different Doses of Neostigmine at Advanced Decurarization .</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>NEODEC</t>
         </is>
       </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
       <c r="I2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>NCT01127152</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>NCT01137487</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Assessment of Automatic Relays by Intensive Basis Advantage Compared With Manual Relays, on the Hypotension Risks, During Noradrenalin Administration</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>ARIBA</t>
-        </is>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
+          <t>Impact of Not Measuring Residual Gastric Volume on Nosocomial Pneumonia Rates in Mechanically Ventilated Patients Receiving Early Enteral Feeding: a Randomized-controlled Study</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>NUTRIREA1</t>
+        </is>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
       <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>NCT01137487</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>NCT01127152</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr"/>
+      <c r="E4" t="inlineStr">
         <is>
           <t>2011</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Impact of Not Measuring Residual Gastric Volume on Nosocomial Pneumonia Rates in Mechanically Ventilated Patients Receiving Early Enteral Feeding: a Randomized-controlled Study</t>
-        </is>
-      </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NUTRIREA1</t>
-        </is>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
+          <t>Assessment of Automatic Relays by Intensive Basis Advantage Compared With Manual Relays, on the Hypotension Risks, During Noradrenalin Administration</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ARIBA</t>
+        </is>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -599,32 +619,37 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>NCT02085915</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr">
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Evaluation of the Strip PeriScreen for the Fast Diagnosis of the Spontaneous Infection of the Liquid of Ascites During the Cirrhosis</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>Per-DRISLA</t>
         </is>
       </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -636,36 +661,41 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>NCT02085902</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>2013-005109-30</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2015</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Does the Use of Ropivacaine Facilitates Cholecystectomy by Laparoscopy in Ambulatory Surgery?</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>VesiRop</t>
         </is>
       </c>
-      <c r="G6" t="b">
-        <v>0</v>
-      </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -677,103 +707,118 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>NCT02159378</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr">
+      <c r="D7" t="inlineStr"/>
+      <c r="E7" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Fructosamines and Gestational Diabetes (FRUCTO)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>FRUCTO</t>
         </is>
       </c>
-      <c r="G7" t="b">
-        <v>0</v>
-      </c>
       <c r="H7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>NCT02413723</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>NCT02044133</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
+      <c r="E8" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>McGrath Mac Videolaryngoscope Versus Macintosh Laryngoscope for Orotracheal Intubation in Critical Care Unit</t>
-        </is>
-      </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>MACMAN</t>
-        </is>
-      </c>
-      <c r="G8" t="b">
-        <v>1</v>
-      </c>
+          <t>Monocentric Randomized Study, Assessing the Interests of the Determination of Vitamin D in Prison Population. (Vitamine D)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J8" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>NCT02044133</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr"/>
-      <c r="D9" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>NCT02413723</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr">
         <is>
           <t>2016</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Monocentric Randomized Study, Assessing the Interests of the Determination of Vitamin D in Prison Population. (Vitamine D)</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr"/>
-      <c r="G9" t="b">
-        <v>0</v>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>McGrath Mac Videolaryngoscope Versus Macintosh Laryngoscope for Orotracheal Intubation in Critical Care Unit</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>MACMAN</t>
+        </is>
       </c>
       <c r="H9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J9" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -784,29 +829,38 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>NCT02583321</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>NCT02925728</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
+      <c r="E10" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>Detection of Chlorhexidine in Tracheal Secretions After Routine Oral Care With Chlorhexidine Gluconate: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr"/>
-      <c r="G10" t="b">
-        <v>0</v>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nutritional Intake of "Finger-food" on Elderly People in Seniors's Resident</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>FIFO</t>
+        </is>
       </c>
       <c r="H10" t="b">
         <v>0</v>
       </c>
       <c r="I10" t="b">
         <v>0</v>
+      </c>
+      <c r="J10" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -817,28 +871,33 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>NCT02583308</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>NCT02585180</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>Impact of the Subglottic Secretions Drainage on the Tracheal Secretions Colonisation: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="b">
-        <v>0</v>
-      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Subglottic Secretions Surveillance to Predict Bacterial Pathogens Involved in Ventilator-associated Pneumonia (VAP): an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -850,32 +909,33 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>NCT02395380</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>NCT02583321</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Evaluation of the Predictive Nature of the Postoperative CRP on Postoperative Recovery in Patients Undergoing Colorectal Resection</t>
-        </is>
-      </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>CRP-Track</t>
-        </is>
-      </c>
-      <c r="G12" t="b">
-        <v>0</v>
-      </c>
+          <t>Detection of Chlorhexidine in Tracheal Secretions After Routine Oral Care With Chlorhexidine Gluconate: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
       <c r="H12" t="b">
         <v>0</v>
       </c>
       <c r="I12" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -887,33 +947,34 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NCT02925728</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr"/>
-      <c r="D13" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>NCT02583308</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>Nutritional Intake of "Finger-food" on Elderly People in Seniors's Resident</t>
-        </is>
-      </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>FIFO</t>
-        </is>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
+          <t>Impact of the Subglottic Secretions Drainage on the Tracheal Secretions Colonisation: an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
       <c r="H13" t="b">
         <v>0</v>
       </c>
       <c r="I13" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J13" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -924,28 +985,37 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>NCT02585180</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr"/>
-      <c r="D14" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>NCT02395380</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr">
         <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Subglottic Secretions Surveillance to Predict Bacterial Pathogens Involved in Ventilator-associated Pneumonia (VAP): an Ancillary Study of the DEMETER Trial (NCT02515617)</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr"/>
-      <c r="G14" t="b">
-        <v>0</v>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Evaluation of the Predictive Nature of the Postoperative CRP on Postoperative Recovery in Patients Undergoing Colorectal Resection</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>CRP-Track</t>
+        </is>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
       <c r="I14" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -957,37 +1027,38 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>NCT02873637</t>
+          <t>rouge</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>2016-001519-19</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
+          <t>NCT02711098</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
+      <c r="E15" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>Adductor Under Sartorial Canal Catheter (KTT) Versus Femoral Catheter (KTF) in a Quick Rehabilitation Process After Total Knee Replacement: A Controlled, Randomized Study (KTSS)</t>
-        </is>
-      </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>KTSS</t>
-        </is>
-      </c>
-      <c r="G15" t="b">
-        <v>0</v>
+          <t>InterLeukine Ancillary Study of the Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>IL-HYPERION</t>
+        </is>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
       <c r="I15" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J15" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -998,70 +1069,80 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>NCT02711098</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>NCT02515617</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr"/>
+      <c r="E16" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>InterLeukine Ancillary Study of the Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
-        </is>
-      </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>IL-HYPERION</t>
-        </is>
-      </c>
-      <c r="G16" t="b">
-        <v>0</v>
+          <t>Drainage of Subglottic Secretions and Prevention of Ventilator-associated Pneumonia in Intensive carE Units: Medico-Economic Study With a Randomized clusTer and crossovER Design: DEMETER Study</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>DEMETER</t>
+        </is>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
       <c r="I16" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>NCT02338427</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr"/>
-      <c r="D17" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>NCT01994772</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr"/>
+      <c r="E17" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>Capacity of Amylose Characterisation Compare by Immunohistochemistry and Proteomic Analysis. Multicenter Prospective</t>
-        </is>
-      </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>IPA</t>
-        </is>
-      </c>
-      <c r="G17" t="b">
-        <v>0</v>
+          <t>Therapeutic Hypothermia After Cardiac Arrest in Non Shockable Rhythm at Rescue Arrival: The HYPERION Study</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>HYPERION</t>
+        </is>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J17" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1072,32 +1153,37 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
           <t>NCT02722473</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr"/>
-      <c r="D18" t="inlineStr">
+      <c r="D18" t="inlineStr"/>
+      <c r="E18" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>NSE Ancillary Study of The Therapeutic Hypothermia After Nonshockable Cardiac Arrest Trial.</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>NSE-HYPERION</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>0</v>
-      </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1109,147 +1195,171 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NCT02515617</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr"/>
-      <c r="D19" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>NCT02338427</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
         <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>Drainage of Subglottic Secretions and Prevention of Ventilator-associated Pneumonia in Intensive carE Units: Medico-Economic Study With a Randomized clusTer and crossovER Design: DEMETER Study</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DEMETER</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
+          <t>Capacity of Amylose Characterisation Compare by Immunohistochemistry and Proteomic Analysis. Multicenter Prospective</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>IPA</t>
+        </is>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
       <c r="I19" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NCT01994772</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr"/>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>NCT02873637</t>
+        </is>
+      </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>2016-001519-19</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>2018</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Therapeutic Hypothermia After Cardiac Arrest in Non Shockable Rhythm at Rescue Arrival: The HYPERION Study</t>
-        </is>
-      </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>HYPERION</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
+          <t>Adductor Under Sartorial Canal Catheter (KTT) Versus Femoral Catheter (KTF) in a Quick Rehabilitation Process After Total Knee Replacement: A Controlled, Randomized Study (KTSS)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>KTSS</t>
+        </is>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>🟧</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NCT02283983</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr"/>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>NCT03084549</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
+          <t>2016-002786-62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>Evaluation of Cryoprotection of Nail Toxicity Induced by Docetaxel Low Cumulative Dose. Controlled, Randomized, Open, Multicentre Prospective.</t>
-        </is>
-      </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>BANQUISE</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>0</v>
+          <t>Study of the Analgesic Effect of the Perineal Infiltration of Ropivacaine 0.75% Versus Placebo in Post-episiotomy Perineal Pain: a Randomized, Double-blind Study</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>ROPISIO</t>
+        </is>
       </c>
       <c r="H21" t="b">
         <v>1</v>
       </c>
       <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟧</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>NCT03084549</t>
+          <t>orange</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>2016-002786-62</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
+          <t>NCT02869867</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>Study of the Analgesic Effect of the Perineal Infiltration of Ropivacaine 0.75% Versus Placebo in Post-episiotomy Perineal Pain: a Randomized, Double-blind Study</t>
-        </is>
-      </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>ROPISIO</t>
-        </is>
-      </c>
-      <c r="G22" t="b">
-        <v>1</v>
+          <t>Does the Application of Cold Decreases the Pain Associated in the Pose of a Patch of Capsaicine at High Concentration on the Carrier Patients of Localized Neuropathic Pains ? - DIDOCAP</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>DIDOCAP</t>
+        </is>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J22" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1261,32 +1371,37 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>NCT02555254</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr"/>
-      <c r="D23" t="inlineStr">
+      <c r="D23" t="inlineStr"/>
+      <c r="E23" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Impact of Speed Of Rewarming After CaRdiac Arrest and ThErapeutic Hypothermia. A Randomized Controlled Pilot Study</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>ISOCRATE</t>
         </is>
       </c>
-      <c r="G23" t="b">
-        <v>0</v>
-      </c>
       <c r="H23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J23" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1298,32 +1413,37 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>NCT02869867</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr"/>
-      <c r="D24" t="inlineStr">
+          <t>orange</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>NCT02283983</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr"/>
+      <c r="E24" t="inlineStr">
         <is>
           <t>2020</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>Does the Application of Cold Decreases the Pain Associated in the Pose of a Patch of Capsaicine at High Concentration on the Carrier Patients of Localized Neuropathic Pains ? - DIDOCAP</t>
-        </is>
-      </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>DIDOCAP</t>
-        </is>
-      </c>
-      <c r="G24" t="b">
-        <v>0</v>
+          <t>Evaluation of Cryoprotection of Nail Toxicity Induced by Docetaxel Low Cumulative Dose. Controlled, Randomized, Open, Multicentre Prospective.</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>BANQUISE</t>
+        </is>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="b">
+        <v>1</v>
+      </c>
+      <c r="J24" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1335,36 +1455,41 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
           <t>NCT03431584</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>2017-002298-20</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>2021</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Effects on the Pain of an Infiltration by Acid Hyaluronic Association and Corticoids Versus Only Corticoids in the Rhizarthrosis.</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>RHIZ'ART</t>
         </is>
       </c>
-      <c r="G25" t="b">
-        <v>1</v>
-      </c>
       <c r="H25" t="b">
         <v>1</v>
       </c>
       <c r="I25" t="b">
+        <v>1</v>
+      </c>
+      <c r="J25" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1376,70 +1501,80 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>NCT02485860</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr">
+      <c r="D26" t="inlineStr"/>
+      <c r="E26" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Interest in the Use of Dressings With Honey for Wound Healing After Excision of Pilonidal Cyst</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Pilomiel</t>
         </is>
       </c>
-      <c r="G26" t="b">
-        <v>1</v>
-      </c>
       <c r="H26" t="b">
         <v>1</v>
       </c>
       <c r="I26" t="b">
+        <v>1</v>
+      </c>
+      <c r="J26" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>🟩</t>
+          <t>🟥</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NCT04912206</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>NCT03926260</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>Impact of Emergency Physician-Performed Ultrasound for the Evaluation of Patients With Acute Abdominal Pain, Prospective Randomized Dual Centre Study</t>
-        </is>
-      </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>EchoPAIN</t>
-        </is>
-      </c>
-      <c r="G27" t="b">
-        <v>1</v>
+          <t>Non-controlled Prospective Pilot Study Assessing Prognostic Performance of Circulating Tumour DNA Kinetic Analysis for Monitoring Response to Treatment of Metastatic Non-small Cell Lung Cancers</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>ELUCID</t>
+        </is>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="J27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1450,70 +1585,80 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>NCT04328623</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr">
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Interest of Hypnosis on Pain Management During a Guided Echo Infiltration of the Hand</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>HYMN</t>
         </is>
       </c>
-      <c r="G28" t="b">
-        <v>1</v>
-      </c>
       <c r="H28" t="b">
         <v>1</v>
       </c>
       <c r="I28" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>🟥</t>
+          <t>🟩</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>NCT03926260</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr">
+          <t>vert</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>NCT04912206</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr">
         <is>
           <t>2022</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>Non-controlled Prospective Pilot Study Assessing Prognostic Performance of Circulating Tumour DNA Kinetic Analysis for Monitoring Response to Treatment of Metastatic Non-small Cell Lung Cancers</t>
-        </is>
-      </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ELUCID</t>
-        </is>
-      </c>
-      <c r="G29" t="b">
-        <v>0</v>
+          <t>Impact of Emergency Physician-Performed Ultrasound for the Evaluation of Patients With Acute Abdominal Pain, Prospective Randomized Dual Centre Study</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>EchoPAIN</t>
+        </is>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J29" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1524,32 +1669,37 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>NCT05378789</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr"/>
-      <c r="D30" t="inlineStr">
+      <c r="D30" t="inlineStr"/>
+      <c r="E30" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Appropriation and Impact of the Introduction of Naps During Night Work by Intensive Care Caregiver - One Year Review</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>MARIENAIE</t>
         </is>
       </c>
-      <c r="G30" t="b">
-        <v>0</v>
-      </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
       <c r="I30" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1561,32 +1711,37 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>NCT04819425</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr"/>
-      <c r="D31" t="inlineStr">
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>"Comparison of Two Methods of Securing Endotracheal Tubes in Intensive Care : Elastic Adhesive Strips vs Lace In A Protective Sheath. A Randomized Multicenter, Cluster and Crossover Controlled Study. FIXATUB"</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>FIXATUB</t>
         </is>
       </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
       <c r="I31" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1598,32 +1753,37 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>NCT05269186</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>NCT04540822</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr"/>
+      <c r="E32" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>Interest of Virtual Reality on Anxiety Before the Planning CT Scan in Radiotherapy</t>
-        </is>
-      </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>REAVA</t>
-        </is>
-      </c>
-      <c r="G32" t="b">
-        <v>0</v>
+          <t>Peripheral Catheter Pressure Ulcer Prevention in Pediatry : Use of Compresses Versus Standard Care"</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>KTESCA</t>
+        </is>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
       <c r="I32" t="b">
+        <v>0</v>
+      </c>
+      <c r="J32" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1635,32 +1795,37 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>NCT03998813</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>NCT05269186</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr"/>
+      <c r="E33" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>Chronic Pain and Functional Prognosis After Total Knee Replacement: Continuous Locoregional Analgesia by Catheter to the Femoral Triangle Versus Tissue Infiltration as Part of an Improved Rehabilitation After Surgery Approach</t>
-        </is>
-      </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>TKAFTER</t>
-        </is>
-      </c>
-      <c r="G33" t="b">
-        <v>0</v>
+          <t>Interest of Virtual Reality on Anxiety Before the Planning CT Scan in Radiotherapy</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>REAVA</t>
+        </is>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
       <c r="I33" t="b">
+        <v>0</v>
+      </c>
+      <c r="J33" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1672,32 +1837,37 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>NCT04540822</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr"/>
-      <c r="D34" t="inlineStr">
+          <t>rouge</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>NCT03998813</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr"/>
+      <c r="E34" t="inlineStr">
         <is>
           <t>2024</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>Peripheral Catheter Pressure Ulcer Prevention in Pediatry : Use of Compresses Versus Standard Care"</t>
-        </is>
-      </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>KTESCA</t>
-        </is>
-      </c>
-      <c r="G34" t="b">
-        <v>0</v>
+          <t>Chronic Pain and Functional Prognosis After Total Knee Replacement: Continuous Locoregional Analgesia by Catheter to the Femoral Triangle Versus Tissue Infiltration as Part of an Improved Rehabilitation After Surgery Approach</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>TKAFTER</t>
+        </is>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
       <c r="I34" t="b">
+        <v>0</v>
+      </c>
+      <c r="J34" t="b">
         <v>0</v>
       </c>
     </row>

--- a/publipostage/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
+++ b/publipostage/05epqd940/liste_essais_cliniques_identifies_05epqd940.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J34"/>
+  <dimension ref="A1:K34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,6 +484,11 @@
           <t>results</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>intervention_type</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -526,6 +531,11 @@
       <c r="J2" t="b">
         <v>1</v>
       </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -568,6 +578,11 @@
       <c r="J3" t="b">
         <v>1</v>
       </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -610,6 +625,11 @@
       <c r="J4" t="b">
         <v>1</v>
       </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -652,6 +672,11 @@
       <c r="J5" t="b">
         <v>0</v>
       </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -698,6 +723,11 @@
       <c r="J6" t="b">
         <v>1</v>
       </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -740,6 +770,11 @@
       <c r="J7" t="b">
         <v>1</v>
       </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -778,6 +813,11 @@
       <c r="J8" t="b">
         <v>0</v>
       </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -820,6 +860,11 @@
       <c r="J9" t="b">
         <v>1</v>
       </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -862,6 +907,11 @@
       <c r="J10" t="b">
         <v>1</v>
       </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -900,6 +950,11 @@
       <c r="J11" t="b">
         <v>0</v>
       </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -938,6 +993,11 @@
       <c r="J12" t="b">
         <v>0</v>
       </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -976,6 +1036,11 @@
       <c r="J13" t="b">
         <v>0</v>
       </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -1018,6 +1083,11 @@
       <c r="J14" t="b">
         <v>0</v>
       </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -1060,6 +1130,11 @@
       <c r="J15" t="b">
         <v>0</v>
       </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1102,6 +1177,11 @@
       <c r="J16" t="b">
         <v>0</v>
       </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1144,6 +1224,11 @@
       <c r="J17" t="b">
         <v>1</v>
       </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1186,6 +1271,11 @@
       <c r="J18" t="b">
         <v>1</v>
       </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>BIOLOGICAL</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1228,6 +1318,11 @@
       <c r="J19" t="b">
         <v>0</v>
       </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1274,6 +1369,11 @@
       <c r="J20" t="b">
         <v>1</v>
       </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1320,6 +1420,11 @@
       <c r="J21" t="b">
         <v>1</v>
       </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1362,6 +1467,11 @@
       <c r="J22" t="b">
         <v>1</v>
       </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1404,6 +1514,11 @@
       <c r="J23" t="b">
         <v>1</v>
       </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1446,6 +1561,11 @@
       <c r="J24" t="b">
         <v>1</v>
       </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -1492,6 +1612,11 @@
       <c r="J25" t="b">
         <v>1</v>
       </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1534,6 +1659,11 @@
       <c r="J26" t="b">
         <v>1</v>
       </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1576,6 +1706,11 @@
       <c r="J27" t="b">
         <v>0</v>
       </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1618,6 +1753,11 @@
       <c r="J28" t="b">
         <v>1</v>
       </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1660,6 +1800,11 @@
       <c r="J29" t="b">
         <v>1</v>
       </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>DIAGNOSTIC_TEST</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1702,6 +1847,11 @@
       <c r="J30" t="b">
         <v>0</v>
       </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>PROCEDURE</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1744,6 +1894,11 @@
       <c r="J31" t="b">
         <v>0</v>
       </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1786,6 +1941,11 @@
       <c r="J32" t="b">
         <v>0</v>
       </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>OTHER</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1828,6 +1988,11 @@
       <c r="J33" t="b">
         <v>0</v>
       </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>DEVICE</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1869,6 +2034,11 @@
       </c>
       <c r="J34" t="b">
         <v>0</v>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>DRUG</t>
+        </is>
       </c>
     </row>
   </sheetData>
